--- a/RUDN/Importance/Varible_muatal_class_in_Southern Africa.xlsx
+++ b/RUDN/Importance/Varible_muatal_class_in_Southern Africa.xlsx
@@ -14,128 +14,128 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="436">
   <si>
     <t>Lower secondary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
@@ -175,6 +175,9 @@
     <t>Age population, age 05, male, interpolated</t>
   </si>
   <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
     <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
@@ -187,7 +190,7 @@
     <t>GDP (current US$)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, female (% net)</t>
+    <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
     <t>Fixed telephone subscriptions (per 100 people)</t>
@@ -211,9 +214,6 @@
     <t>Age population, age 12, female, interpolated</t>
   </si>
   <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
     <t>Female population 10-14</t>
   </si>
   <si>
@@ -238,24 +238,24 @@
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
     <t>Improved water source (% of population with access)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
     <t>Health expenditure, total (current US$)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, male (% net)</t>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
     <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
     <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Age population, age 02, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
@@ -319,1000 +319,1006 @@
     <t>Female population 35-39</t>
   </si>
   <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
     <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
     <t>Net intake rate in grade 1, female (% of official school-age population)</t>
   </si>
   <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
     <t>School enrollment, primary, male (% net)</t>
   </si>
   <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
     <t>Persistence to last grade of primary, total (% of cohort)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>Employment in services, male (% of male employment)</t>
   </si>
   <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
   </si>
   <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
   </si>
   <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
   </si>
   <si>
     <t>Wage and salaried workers, female (% of female employment)</t>
   </si>
   <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
     <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
   </si>
   <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Population, total</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
     <t>Literacy rate, youth male (% of males ages 15-24)</t>
   </si>
   <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Region_code</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
     <t>Unemployment, female (% of female labor force) (national estimate)</t>
   </si>
   <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
   </si>
   <si>
     <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
   </si>
   <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Prevalence of obesity, female (% of female population ages 18+)</t>
   </si>
   <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
     <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
@@ -1673,7 +1679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B435"/>
+  <dimension ref="A1:B437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2113,7 +2119,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.6462181950789265</v>
+        <v>0.6476654657569663</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2121,7 +2127,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.6440814429421743</v>
+        <v>0.6462181950789265</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2129,7 +2135,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.6400460339067652</v>
+        <v>0.6440814429421743</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2137,7 +2143,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.639006327337766</v>
+        <v>0.6400460339067652</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2145,7 +2151,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.637409055500556</v>
+        <v>0.639006327337766</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2153,7 +2159,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6321255969719705</v>
+        <v>0.632280850372351</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2161,7 +2167,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.6317426706034019</v>
+        <v>0.6321255969719705</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2169,7 +2175,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.6269874258481571</v>
+        <v>0.6317426706034019</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2177,7 +2183,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6266638605245919</v>
+        <v>0.6269874258481571</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2185,7 +2191,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.6227683116290429</v>
+        <v>0.6266638605245919</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2193,7 +2199,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.6197407836015149</v>
+        <v>0.6227683116290429</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2201,7 +2207,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.6154676635591642</v>
+        <v>0.6197407836015149</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2209,7 +2215,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.6143321324236329</v>
+        <v>0.6154676635591642</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2281,7 +2287,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.5968468399383406</v>
+        <v>0.5973850197072896</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2297,7 +2303,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.5883123569039765</v>
+        <v>0.5892710823625829</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2305,7 +2311,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.5874521747744446</v>
+        <v>0.5883123569039765</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2313,7 +2319,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.5773470662077975</v>
+        <v>0.5867737506344819</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2321,7 +2327,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.5771766810374124</v>
+        <v>0.5773470662077975</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2457,7 +2463,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.5259324124854514</v>
+        <v>0.5264692687915387</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2465,7 +2471,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.5239051662274359</v>
+        <v>0.5259324124854514</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2497,7 +2503,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.512897071757803</v>
+        <v>0.5124578955493961</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2505,7 +2511,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.5124578955493961</v>
+        <v>0.5116198447113454</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2513,7 +2519,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.5116198447113454</v>
+        <v>0.5105283293890606</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2521,7 +2527,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.5105283293890606</v>
+        <v>0.5099546722769421</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2529,7 +2535,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.5099546722769421</v>
+        <v>0.5097820473442551</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2545,7 +2551,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.5097820473442551</v>
+        <v>0.5082204663119667</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2553,7 +2559,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.5082702455925154</v>
+        <v>0.5069389700304707</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2561,7 +2567,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.5082204663119667</v>
+        <v>0.5055825486740493</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2569,7 +2575,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.5069389700304707</v>
+        <v>0.5049964680879686</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2577,7 +2583,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.5055825486740493</v>
+        <v>0.5037638118553125</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2585,7 +2591,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.5049964680879686</v>
+        <v>0.5036478167393172</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2593,7 +2599,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.5037638118553125</v>
+        <v>0.5023870199694709</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2601,7 +2607,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.5036478167393172</v>
+        <v>0.5015080120995128</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2609,7 +2615,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.5023870199694709</v>
+        <v>0.4992958866181565</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2617,7 +2623,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.5015080120995128</v>
+        <v>0.4977997758912764</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2625,7 +2631,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.4990381528988843</v>
+        <v>0.4963517794432801</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2633,7 +2639,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.4963517794432801</v>
+        <v>0.4955346478569178</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2641,7 +2647,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.4955346478569178</v>
+        <v>0.4952658141265456</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2657,7 +2663,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.4915295503902817</v>
+        <v>0.4950094038701351</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2665,7 +2671,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.4906681895289209</v>
+        <v>0.4915295503902817</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2673,7 +2679,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.4901376089983402</v>
+        <v>0.490051968143469</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2681,7 +2687,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.490051968143469</v>
+        <v>0.4898382929297935</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2689,7 +2695,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.4851429882344891</v>
+        <v>0.4855399844007158</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2697,7 +2703,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.4807701094493744</v>
+        <v>0.4851429882344891</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2705,7 +2711,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.4802841291448603</v>
+        <v>0.4807701094493744</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2713,7 +2719,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.4791056921971928</v>
+        <v>0.4802841291448603</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2721,7 +2727,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.4780619069226386</v>
+        <v>0.4791056921971928</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2761,7 +2767,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.4702696014104044</v>
+        <v>0.4694490178006996</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2769,7 +2775,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.4696417769348731</v>
+        <v>0.469123452214953</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2777,7 +2783,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.4694490178006996</v>
+        <v>0.4670606859214175</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2809,7 +2815,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.4623487541417313</v>
+        <v>0.4620344103658489</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2817,7 +2823,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.4620344103658489</v>
+        <v>0.4605901313245229</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2825,7 +2831,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.4613998479237134</v>
+        <v>0.4602762614170646</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2833,7 +2839,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.4602762614170646</v>
+        <v>0.4548849860257891</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2841,7 +2847,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.4595385926300932</v>
+        <v>0.4443317481924796</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2849,7 +2855,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.4566877255484572</v>
+        <v>0.4434642823250137</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2857,7 +2863,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.4443317481924796</v>
+        <v>0.4424307735715769</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2865,7 +2871,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.4434642823250137</v>
+        <v>0.4341463780071095</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2873,7 +2879,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.4402049775272474</v>
+        <v>0.4331351669958985</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2881,7 +2887,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.4364988786690938</v>
+        <v>0.4313150363974874</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2889,7 +2895,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.4331351669958985</v>
+        <v>0.429896811806846</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2897,7 +2903,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.4313150363974874</v>
+        <v>0.4277993916601233</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2905,7 +2911,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.4303002241609557</v>
+        <v>0.4241422092246601</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2913,7 +2919,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.4277993916601233</v>
+        <v>0.423878312739044</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2921,7 +2927,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.4241422092246601</v>
+        <v>0.4226650649379182</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2929,7 +2935,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.4232322920930234</v>
+        <v>0.4222738061345375</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2937,7 +2943,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.4222738061345375</v>
+        <v>0.4217998293822802</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2945,7 +2951,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.4217998293822802</v>
+        <v>0.4213092151699467</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3009,7 +3015,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.4098134886742202</v>
+        <v>0.4088860827468142</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3033,7 +3039,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.4033783729807148</v>
+        <v>0.4046217969148931</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3089,7 +3095,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.395704264564996</v>
+        <v>0.3946707956577529</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3097,7 +3103,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.3942791085244552</v>
+        <v>0.3943056631663946</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3105,7 +3111,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.3931425281018648</v>
+        <v>0.3929123556192409</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3113,7 +3119,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.3929123556192409</v>
+        <v>0.3918153756761071</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3121,7 +3127,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.3918153756761071</v>
+        <v>0.3896693346286715</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3185,7 +3191,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.3808677949449377</v>
+        <v>0.3788872460372179</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3193,7 +3199,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.3788872460372179</v>
+        <v>0.376566050168982</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3201,7 +3207,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.376566050168982</v>
+        <v>0.3750266088873402</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3209,7 +3215,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.3748966747189448</v>
+        <v>0.3745669765631023</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3217,7 +3223,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.3745669765631023</v>
+        <v>0.3721489144217676</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3225,7 +3231,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.3721489144217676</v>
+        <v>0.3712497020335104</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3233,7 +3239,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.3712497020335104</v>
+        <v>0.3703593894803021</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3257,7 +3263,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.3670010811219935</v>
+        <v>0.3646737446021164</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3265,7 +3271,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.3646737446021164</v>
+        <v>0.3633721763116222</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3273,7 +3279,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.3644733160263554</v>
+        <v>0.3606790547320939</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3281,7 +3287,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.3611161817076824</v>
+        <v>0.3590039125517628</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3289,7 +3295,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.360685949546681</v>
+        <v>0.3581218469825784</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3297,7 +3303,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.3606790547320939</v>
+        <v>0.3575489156404164</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3305,7 +3311,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.3605540120100044</v>
+        <v>0.3569015012147212</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3313,7 +3319,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.3595203762765642</v>
+        <v>0.3548205068736652</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3321,7 +3327,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.3569015012147212</v>
+        <v>0.3511449350056663</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3329,7 +3335,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.3548205068736652</v>
+        <v>0.3497619194871424</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3337,7 +3343,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.3541608080215397</v>
+        <v>0.3496087788541258</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3345,7 +3351,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.3495387633994949</v>
+        <v>0.3480496969104283</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3353,7 +3359,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.3480496969104283</v>
+        <v>0.3467045495066956</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3361,7 +3367,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.3454184392791706</v>
+        <v>0.3453330696462897</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3377,7 +3383,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.3453330696462897</v>
+        <v>0.3447176380693198</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3385,7 +3391,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.3447176380693198</v>
+        <v>0.3430069618676932</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3393,7 +3399,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.3430069618676932</v>
+        <v>0.3421289936820331</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3401,7 +3407,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.3425478285715751</v>
+        <v>0.3414870288092986</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3409,7 +3415,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.3391013391635471</v>
+        <v>0.3413004418919425</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3417,7 +3423,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.3376902700125399</v>
+        <v>0.3335734695972163</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3425,7 +3431,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.3363588236810933</v>
+        <v>0.3327542018072409</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3433,7 +3439,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.3327542018072409</v>
+        <v>0.3317399830772831</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3441,7 +3447,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.3317399830772831</v>
+        <v>0.3310234325764716</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3449,7 +3455,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.3310234325764716</v>
+        <v>0.3304326724858306</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3457,7 +3463,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.3304326724858306</v>
+        <v>0.3302210085048167</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3465,7 +3471,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.3301556402380912</v>
+        <v>0.3290879321794327</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3473,7 +3479,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.3290879321794327</v>
+        <v>0.3279507360422367</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3481,7 +3487,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.3279507360422367</v>
+        <v>0.3275311556226566</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3489,7 +3495,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.3275311556226566</v>
+        <v>0.3271585794808491</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3497,7 +3503,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.3271585794808491</v>
+        <v>0.3268525607132922</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3505,7 +3511,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.3267796848711857</v>
+        <v>0.3243676524591532</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3513,7 +3519,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.3264551803159119</v>
+        <v>0.3225790564397879</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3521,7 +3527,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.3243676524591532</v>
+        <v>0.3222270580108664</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3529,7 +3535,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.3225790564397879</v>
+        <v>0.3215856481386874</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3537,7 +3543,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.3222270580108664</v>
+        <v>0.3202713641320956</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3545,7 +3551,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.3220235008842323</v>
+        <v>0.3193451108981498</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3553,7 +3559,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.3207459260206849</v>
+        <v>0.317819243603052</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3561,7 +3567,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.3202713641320956</v>
+        <v>0.3173104361711676</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3569,7 +3575,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.3197263535870851</v>
+        <v>0.3167105960916896</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3577,7 +3583,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.3193451108981498</v>
+        <v>0.3162087632416788</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3585,7 +3591,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.319058852410534</v>
+        <v>0.3162087632416788</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3593,7 +3599,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.317819243603052</v>
+        <v>0.316188054279555</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3601,7 +3607,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.3173104361711676</v>
+        <v>0.3131910939749023</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3609,7 +3615,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.3165173403780717</v>
+        <v>0.3127929451152149</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3617,7 +3623,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.3162602043517051</v>
+        <v>0.3119632192854891</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3625,7 +3631,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.3162087632416788</v>
+        <v>0.3118928409458801</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3633,7 +3639,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.3162087632416788</v>
+        <v>0.3113229621067704</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3641,7 +3647,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.3157418338333347</v>
+        <v>0.3105536396745521</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3649,7 +3655,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.3149493357331441</v>
+        <v>0.3099124432641247</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3657,7 +3663,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.314685283546015</v>
+        <v>0.3097362795585494</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3665,7 +3671,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.3136465937290447</v>
+        <v>0.3079703318310634</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3673,7 +3679,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.3131910939749023</v>
+        <v>0.3078431086269169</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3681,7 +3687,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.3118928409458801</v>
+        <v>0.3052200005423895</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3689,7 +3695,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.3113229621067704</v>
+        <v>0.3012420601027914</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3697,7 +3703,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.3105536396745521</v>
+        <v>0.3001987017517407</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3705,7 +3711,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.3098331271553969</v>
+        <v>0.2992266823181831</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3713,7 +3719,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.3078431086269169</v>
+        <v>0.298727011049281</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3721,7 +3727,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.3074023954938963</v>
+        <v>0.2980625046155438</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3729,7 +3735,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.3069741058348372</v>
+        <v>0.2971404352319358</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3737,7 +3743,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.306664073986344</v>
+        <v>0.2960537441452449</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3745,7 +3751,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.3050216138823454</v>
+        <v>0.2957969923500314</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3753,7 +3759,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.301967622941953</v>
+        <v>0.2956351333143981</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3761,7 +3767,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.3012420601027914</v>
+        <v>0.295062861037191</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3769,7 +3775,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.2992266823181831</v>
+        <v>0.2950267671001683</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3777,7 +3783,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.2980625046155438</v>
+        <v>0.2933853014768022</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3785,7 +3791,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.2971404352319358</v>
+        <v>0.2920203886613109</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3793,7 +3799,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.2960537441452449</v>
+        <v>0.2902769568299959</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3801,7 +3807,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.2959555090470098</v>
+        <v>0.2897955578870586</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3809,7 +3815,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.2956351333143981</v>
+        <v>0.2896797335404648</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3817,7 +3823,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.2949415230330237</v>
+        <v>0.2885501366416374</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3825,7 +3831,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.2936239517154524</v>
+        <v>0.2868066696088158</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3833,7 +3839,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.2920203886613109</v>
+        <v>0.2859126261671416</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3841,7 +3847,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.2908956116794199</v>
+        <v>0.2852027575250273</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3849,7 +3855,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.2896797335404648</v>
+        <v>0.2807786773317165</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3857,7 +3863,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.2881570832395342</v>
+        <v>0.2803879142486456</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3865,7 +3871,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.2861629084851784</v>
+        <v>0.2797473396098626</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3873,7 +3879,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.2830235566354193</v>
+        <v>0.2794233232840548</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3881,7 +3887,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.2812737378267769</v>
+        <v>0.2744655033262346</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3889,7 +3895,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.2803879142486456</v>
+        <v>0.2730606261521267</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3897,7 +3903,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.2797473396098626</v>
+        <v>0.2719432756795725</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3905,7 +3911,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.2780777671308061</v>
+        <v>0.2711377199984513</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3913,7 +3919,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.2780024578247278</v>
+        <v>0.2702352890960205</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3921,7 +3927,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.2769807658414973</v>
+        <v>0.2697717995940694</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3929,7 +3935,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.2755527494134808</v>
+        <v>0.2694224267446967</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3937,7 +3943,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.2751925540532856</v>
+        <v>0.2675872533710615</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3945,7 +3951,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.2746063026978034</v>
+        <v>0.2671272859880174</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3953,7 +3959,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.2744655033262346</v>
+        <v>0.2670705051620057</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3961,7 +3967,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.2718891907499221</v>
+        <v>0.2668337911470113</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3969,7 +3975,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.2702352890960205</v>
+        <v>0.2665410346325352</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3977,7 +3983,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.2695935606173068</v>
+        <v>0.2663797002404316</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3985,7 +3991,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.2694224267446967</v>
+        <v>0.2663513952121266</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3993,7 +3999,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.2680809904032604</v>
+        <v>0.2662352870869689</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4001,7 +4007,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.2671272859880174</v>
+        <v>0.2662166795004877</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4009,7 +4015,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.2667537153655779</v>
+        <v>0.2650338238945553</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4017,7 +4023,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.2665410346325352</v>
+        <v>0.2636114001644394</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4025,7 +4031,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.2664679453286769</v>
+        <v>0.2628622806644267</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4033,7 +4039,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.2662166795004877</v>
+        <v>0.2618419409149899</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4041,7 +4047,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.2650338238945553</v>
+        <v>0.2610840296756494</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4049,7 +4055,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.2645740929055316</v>
+        <v>0.2604954135869144</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4057,7 +4063,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.2637462652993043</v>
+        <v>0.2601571985088802</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4065,7 +4071,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.2618419409149899</v>
+        <v>0.2600257123479821</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4073,7 +4079,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.2610840296756494</v>
+        <v>0.2591366014588716</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4081,7 +4087,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.260874094734826</v>
+        <v>0.2586167367082375</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4089,7 +4095,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.2604954135869144</v>
+        <v>0.2585938109160808</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4097,7 +4103,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.2603627684542691</v>
+        <v>0.2575258190788585</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4105,7 +4111,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.2601571985088802</v>
+        <v>0.2571408194630891</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4113,7 +4119,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.2600257123479821</v>
+        <v>0.2570784886315278</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4121,7 +4127,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.2597583957821421</v>
+        <v>0.255869099729831</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4129,7 +4135,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.2596730735338051</v>
+        <v>0.2553390741998056</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4137,7 +4143,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.2595120681239307</v>
+        <v>0.2549618383135202</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4145,7 +4151,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.2594851418074118</v>
+        <v>0.2548300746523444</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4153,7 +4159,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.2585938109160808</v>
+        <v>0.2546286734894048</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4161,7 +4167,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.2585064623671935</v>
+        <v>0.253959556281826</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4169,7 +4175,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.2579031767639082</v>
+        <v>0.2537630860853557</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4177,7 +4183,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.2571408194630891</v>
+        <v>0.2492553518175598</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4185,7 +4191,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.255869099729831</v>
+        <v>0.2492216873131881</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4193,7 +4199,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.2549618383135202</v>
+        <v>0.2464017294932301</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4201,7 +4207,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.2537630860853557</v>
+        <v>0.2447728455566538</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4209,7 +4215,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.2535072308295006</v>
+        <v>0.2445893111423503</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4217,7 +4223,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.2510968373807649</v>
+        <v>0.2434070532293233</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4225,7 +4231,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.2509362974893368</v>
+        <v>0.2430556311471319</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4233,7 +4239,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.2500869331784337</v>
+        <v>0.2419606379843846</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4241,7 +4247,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.2498133179048185</v>
+        <v>0.2417230107760502</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4249,7 +4255,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.2485425374032688</v>
+        <v>0.2407481096088411</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4257,7 +4263,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.2466640250157068</v>
+        <v>0.2406199044806356</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4265,7 +4271,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.2465089513312213</v>
+        <v>0.2404239892847206</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4273,7 +4279,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.2456051266491162</v>
+        <v>0.2403307491914806</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4281,7 +4287,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.245293948385449</v>
+        <v>0.2402845133760141</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4289,7 +4295,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.2434070532293233</v>
+        <v>0.2401849975072674</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4297,7 +4303,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.24289878824142</v>
+        <v>0.2387573226180539</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4305,7 +4311,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.2407481096088411</v>
+        <v>0.2386949720264111</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4313,7 +4319,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.2406199044806356</v>
+        <v>0.2385503074110389</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4321,7 +4327,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.2404239892847206</v>
+        <v>0.2382694771302087</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4329,7 +4335,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.2399096531934615</v>
+        <v>0.2374174872397574</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4337,7 +4343,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.2387573226180539</v>
+        <v>0.2371218807135005</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4345,7 +4351,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.2385503074110389</v>
+        <v>0.2361554800162113</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4353,7 +4359,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.2382816871424185</v>
+        <v>0.2345069378383766</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4361,7 +4367,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.2382694771302087</v>
+        <v>0.2335322058544758</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4369,7 +4375,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.2371218807135005</v>
+        <v>0.2308518947126259</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4377,7 +4383,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.2362903451510767</v>
+        <v>0.2284552315467323</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4385,7 +4391,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.2361638477168868</v>
+        <v>0.2280899172018991</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4393,7 +4399,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.2352471575694273</v>
+        <v>0.2270734936265326</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4401,7 +4407,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.2348077678992684</v>
+        <v>0.2268947407554722</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4409,7 +4415,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.2326177784015866</v>
+        <v>0.2248577013613242</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4417,7 +4423,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.2322591990724197</v>
+        <v>0.2244921694573305</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4425,7 +4431,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.2308518947126259</v>
+        <v>0.2235799359022055</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4433,7 +4439,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.2298734287341604</v>
+        <v>0.2232608807862995</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4441,7 +4447,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.2294104540517283</v>
+        <v>0.2224747163354479</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4449,7 +4455,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.2284552315467323</v>
+        <v>0.2217142374980456</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4457,7 +4463,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.2280899172018991</v>
+        <v>0.2212543128073519</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4465,7 +4471,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.2272913953828961</v>
+        <v>0.2206500879723579</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4473,7 +4479,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.2268947407554722</v>
+        <v>0.2202103140710454</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4481,7 +4487,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.2268583241805939</v>
+        <v>0.2187164400003674</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4489,7 +4495,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.2262739085961787</v>
+        <v>0.2184513465428473</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4497,7 +4503,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.2256075663913746</v>
+        <v>0.2181150162065169</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4505,7 +4511,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.2248577013613242</v>
+        <v>0.2164612853220167</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4513,7 +4519,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.2244921694573305</v>
+        <v>0.2137497020335102</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4521,7 +4527,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.2232608807862995</v>
+        <v>0.2119998493221193</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4529,7 +4535,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.2225691624114423</v>
+        <v>0.2083076528810541</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4537,7 +4543,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.2218353983884374</v>
+        <v>0.2081657347187738</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4545,7 +4551,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.2216902808111931</v>
+        <v>0.2069556200471205</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4553,7 +4559,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.2210892641807649</v>
+        <v>0.2068973876811961</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4561,7 +4567,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.2202103140710454</v>
+        <v>0.2067121455728769</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4569,7 +4575,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.2193760841983541</v>
+        <v>0.2028083783998789</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4577,7 +4583,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.2191156624471013</v>
+        <v>0.2012243000850316</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4585,7 +4591,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.2187164400003674</v>
+        <v>0.2012243000850316</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4593,7 +4599,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.2149470730385736</v>
+        <v>0.2011338776869167</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4601,7 +4607,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.2119998493221193</v>
+        <v>0.1967724146150467</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4609,7 +4615,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.2012243000850316</v>
+        <v>0.1945630126545135</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4617,7 +4623,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.2012243000850316</v>
+        <v>0.1935131223738538</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4625,7 +4631,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.2009484648091961</v>
+        <v>0.1922076329914417</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4633,7 +4639,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.1946356624782946</v>
+        <v>0.1910763283985983</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4641,7 +4647,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.1863280851888167</v>
+        <v>0.1878551478697255</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4665,7 +4671,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.1857043072573463</v>
+        <v>0.1856010344617658</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4673,7 +4679,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.1856010344617658</v>
+        <v>0.1806853392972019</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4681,7 +4687,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.1854678770209164</v>
+        <v>0.1778421267028583</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4689,7 +4695,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.1821433257551885</v>
+        <v>0.1760833726364117</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4697,7 +4703,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.1778421267028583</v>
+        <v>0.1712059850667165</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4705,7 +4711,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.1738799777407092</v>
+        <v>0.1711144099751412</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4713,7 +4719,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.1736843425563861</v>
+        <v>0.1682637303168886</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4721,7 +4727,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.1711144099751412</v>
+        <v>0.1670279638209409</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4729,7 +4735,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.1684327920244117</v>
+        <v>0.165563849424581</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4737,7 +4743,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.1681363196893588</v>
+        <v>0.1646631902546911</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4745,7 +4751,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.1647622610259456</v>
+        <v>0.161376967930007</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4753,7 +4759,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.1624736427484013</v>
+        <v>0.1612540993456002</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4761,7 +4767,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.161376967930007</v>
+        <v>0.1612540993456002</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4769,7 +4775,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.1612540993456002</v>
+        <v>0.1602294402440179</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4777,7 +4783,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.1612540993456002</v>
+        <v>0.1516416636745788</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4785,7 +4791,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.1516416636745788</v>
+        <v>0.1496790077705086</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4793,7 +4799,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.1468014454133082</v>
+        <v>0.1485125460271235</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4801,7 +4807,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.1418466691689388</v>
+        <v>0.1432633721241037</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4809,7 +4815,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.1417225198140202</v>
+        <v>0.1411089026619419</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4825,7 +4831,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.1366078054685369</v>
+        <v>0.1353560531986853</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4833,7 +4839,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.1364005981459451</v>
+        <v>0.1331741909763371</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4841,7 +4847,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.1353560531986853</v>
+        <v>0.1277618161134977</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4849,7 +4855,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.1348628837236152</v>
+        <v>0.1263767971606056</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4857,7 +4863,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.1306684029906731</v>
+        <v>0.1256113889428276</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4865,7 +4871,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.1277618161134977</v>
+        <v>0.1240368721283729</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4873,7 +4879,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.1256113889428276</v>
+        <v>0.1239715955246345</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4881,7 +4887,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.1245134468357165</v>
+        <v>0.1215643810699092</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4889,7 +4895,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.1187388368303375</v>
+        <v>0.1206676772207165</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -4897,7 +4903,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.1135381400911792</v>
+        <v>0.1144904783512097</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -4905,7 +4911,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.1093162113491266</v>
+        <v>0.1099669249815023</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -4913,7 +4919,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.105888554885033</v>
+        <v>0.1064737087959786</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -4921,7 +4927,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.1056852237767247</v>
+        <v>0.0972458212988605</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -4929,7 +4935,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.1009230842068924</v>
+        <v>0.09617550272854181</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -4937,7 +4943,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.0972458212988605</v>
+        <v>0.09565187477278725</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -4945,7 +4951,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.09682946415173377</v>
+        <v>0.08883241218409399</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -4953,7 +4959,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.09650641430856033</v>
+        <v>0.08633956943107002</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -4961,7 +4967,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.09565187477278725</v>
+        <v>0.08593170964776387</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -4969,7 +4975,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.09490753992211753</v>
+        <v>0.08529125876737487</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -4977,7 +4983,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.0933001540952747</v>
+        <v>0.08402632711782787</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -4985,7 +4991,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.09319039206243573</v>
+        <v>0.08092326376589565</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -4993,7 +4999,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.08986271295421355</v>
+        <v>0.07994807948099458</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5001,7 +5007,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.08090803515338196</v>
+        <v>0.07899084977465831</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5009,7 +5015,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.08041809774036768</v>
+        <v>0.07624376779680686</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5017,7 +5023,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.07263532495759484</v>
+        <v>0.07399473477854324</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5025,7 +5031,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.07055206633587452</v>
+        <v>0.07263532495759484</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5033,7 +5039,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.06605933684314524</v>
+        <v>0.06748047980274974</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5041,7 +5047,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.06414714646941655</v>
+        <v>0.06700407586480739</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5049,7 +5055,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.06365985598212576</v>
+        <v>0.06605933684314524</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5057,7 +5063,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.06155905080439772</v>
+        <v>0.05990361222588225</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5073,7 +5079,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.04711799888180246</v>
+        <v>0.05608947764251693</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5081,7 +5087,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.04687380015760834</v>
+        <v>0.05178028256409073</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5089,7 +5095,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.03165385167974155</v>
+        <v>0.04711799888180246</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5097,7 +5103,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.02879877689027777</v>
+        <v>0.04687380015760834</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5105,7 +5111,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.0253940192547506</v>
+        <v>0.0448151411193114</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5113,7 +5119,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.02200796086869228</v>
+        <v>0.04058786387167257</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5121,7 +5127,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.01472191358264485</v>
+        <v>0.04040627195931101</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5129,7 +5135,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.01451972261122325</v>
+        <v>0.03789690098840182</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5137,7 +5143,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.01438596747746823</v>
+        <v>0.033841896164166</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5145,7 +5151,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.01182967761348586</v>
+        <v>0.02595089199488121</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -5153,7 +5159,23 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.00878229764302918</v>
+        <v>0.0223170961778274</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <v>0.01438596747746823</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <v>0.0005771694379006487</v>
       </c>
     </row>
   </sheetData>
